--- a/xls_to_forms/absolventinnenfeier2.xlsx
+++ b/xls_to_forms/absolventinnenfeier2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t xml:space="preserve">Felder</t>
   </si>
@@ -67,6 +67,12 @@
     <t xml:space="preserve">Duck</t>
   </si>
   <si>
+    <t xml:space="preserve">Ja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ducktalestraße </t>
   </si>
   <si>
@@ -74,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">tick@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11.2023</t>
   </si>
   <si>
     <t xml:space="preserve">Trick</t>
@@ -98,9 +107,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="&quot;WAHR&quot;;&quot;WAHR&quot;;&quot;FALSCH&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -168,12 +178,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -197,10 +211,10 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
@@ -210,8 +224,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.35"/>
   </cols>
@@ -267,8 +281,14 @@
       <c r="D2" s="0" t="n">
         <v>123</v>
       </c>
+      <c r="E2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>16</v>
+      </c>
       <c r="G2" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1</v>
@@ -277,27 +297,30 @@
         <v>1000</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>45231</v>
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>456</v>
       </c>
+      <c r="F3" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1</v>
@@ -306,27 +329,30 @@
         <v>1000</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>45231</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>789</v>
       </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1</v>
@@ -335,13 +361,16 @@
         <v>1000</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>45231</v>
+        <v>26</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
